--- a/FILTROS IMAGENES/EXPERIMENTOS/RESULTADOS/COMPARACION_KERNELS/COMPARACION FILTROS/resultados.xlsx
+++ b/FILTROS IMAGENES/EXPERIMENTOS/RESULTADOS/COMPARACION_KERNELS/COMPARACION FILTROS/resultados.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>kernel_filter_color_local4</t>
+    <t>kernel_filter_color_local3</t>
   </si>
   <si>
     <t>kernel_filter_color_rectangular</t>
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -409,13 +409,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>2.1312E-05</v>
+        <v>2.2528E-05</v>
       </c>
       <c r="C2" s="1">
-        <v>3.6736E-05</v>
+        <v>3.6128E-05</v>
       </c>
       <c r="D2" s="1">
-        <v>3.4816E-05</v>
+        <v>3.6864E-05</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -423,13 +423,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>3.1008E-05</v>
+        <v>3.168E-05</v>
       </c>
       <c r="C3" s="1">
-        <v>3.7888E-05</v>
+        <v>3.9552E-05</v>
       </c>
       <c r="D3" s="1">
-        <v>3.6864E-05</v>
+        <v>3.9904E-05</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -437,13 +437,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>6.3488E-05</v>
+        <v>6.451200000000001E-05</v>
       </c>
       <c r="C4" s="1">
-        <v>4.105600000000001E-05</v>
+        <v>4.192000000000001E-05</v>
       </c>
       <c r="D4" s="1">
-        <v>4.1184E-05</v>
+        <v>4.3808E-05</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -451,13 +451,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>6.9632E-05</v>
+        <v>7.049600000000001E-05</v>
       </c>
       <c r="C5" s="1">
-        <v>4.4896E-05</v>
+        <v>4.608000000000001E-05</v>
       </c>
       <c r="D5" s="1">
-        <v>4.0736E-05</v>
+        <v>4.3296E-05</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -465,13 +465,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>0.000104192</v>
+        <v>0.000104544</v>
       </c>
       <c r="C6" s="1">
-        <v>4.905600000000001E-05</v>
+        <v>3.9104E-05</v>
       </c>
       <c r="D6" s="1">
-        <v>4.700800000000001E-05</v>
+        <v>3.8048E-05</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -479,13 +479,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>0.000136896</v>
+        <v>0.000137216</v>
       </c>
       <c r="C7" s="1">
-        <v>5.632E-05</v>
+        <v>5.600000000000001E-05</v>
       </c>
       <c r="D7" s="1">
-        <v>4.915200000000001E-05</v>
+        <v>5.2192E-05</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -493,13 +493,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>0.000274624</v>
+        <v>0.000274432</v>
       </c>
       <c r="C8" s="1">
-        <v>6.0096E-05</v>
+        <v>4.2912E-05</v>
       </c>
       <c r="D8" s="1">
-        <v>6.0608E-05</v>
+        <v>4.3424E-05</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -507,13 +507,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>0.0003072</v>
+        <v>0.00022016</v>
       </c>
       <c r="C9" s="1">
-        <v>6.0384E-05</v>
+        <v>6.556800000000001E-05</v>
       </c>
       <c r="D9" s="1">
-        <v>6.368000000000001E-05</v>
+        <v>5.744000000000001E-05</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -521,13 +521,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>0.000217088</v>
+        <v>0.00028672</v>
       </c>
       <c r="C10" s="1">
-        <v>6.524800000000001E-05</v>
+        <v>4.72E-05</v>
       </c>
       <c r="D10" s="1">
-        <v>5.7632E-05</v>
+        <v>4.3648E-05</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -535,13 +535,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>0.000286656</v>
+        <v>0.0004471360000000001</v>
       </c>
       <c r="C11" s="1">
-        <v>7.0496E-05</v>
+        <v>7.568000000000001E-05</v>
       </c>
       <c r="D11" s="1">
-        <v>6.627200000000001E-05</v>
+        <v>7.363200000000002E-05</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -549,13 +549,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>0.000446464</v>
+        <v>0.000397312</v>
       </c>
       <c r="C12" s="1">
-        <v>7.552000000000001E-05</v>
+        <v>8.057600000000001E-05</v>
       </c>
       <c r="D12" s="1">
-        <v>7.2896E-05</v>
+        <v>7.3952E-05</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -563,13 +563,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>0.000392192</v>
+        <v>0.0004569280000000001</v>
       </c>
       <c r="C13" s="1">
-        <v>8.0832E-05</v>
+        <v>8.5888E-05</v>
       </c>
       <c r="D13" s="1">
-        <v>7.372800000000001E-05</v>
+        <v>7.504E-05</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -577,13 +577,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>0.0004567040000000001</v>
+        <v>0.0005274240000000001</v>
       </c>
       <c r="C14" s="1">
-        <v>8.5344E-05</v>
+        <v>9.315200000000001E-05</v>
       </c>
       <c r="D14" s="1">
-        <v>7.4688E-05</v>
+        <v>8.089600000000001E-05</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -591,13 +591,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>0.0005335040000000001</v>
+        <v>0.000613248</v>
       </c>
       <c r="C15" s="1">
-        <v>9.011200000000001E-05</v>
+        <v>9.7024E-05</v>
       </c>
       <c r="D15" s="1">
-        <v>8.009600000000001E-05</v>
+        <v>8.499200000000002E-05</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -605,13 +605,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>0.0006010880000000001</v>
+        <v>0.00157312</v>
       </c>
       <c r="C16" s="1">
-        <v>9.651200000000001E-05</v>
+        <v>0.000102624</v>
       </c>
       <c r="D16" s="1">
-        <v>8.2944E-05</v>
+        <v>8.595200000000001E-05</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -619,13 +619,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>0.000687808</v>
+        <v>0.000745408</v>
       </c>
       <c r="C17" s="1">
-        <v>0.00010112</v>
+        <v>0.000105472</v>
       </c>
       <c r="D17" s="1">
-        <v>8.396800000000001E-05</v>
+        <v>9.062400000000001E-05</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -633,13 +633,223 @@
         <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>0.0010616</v>
+        <v>0.002435392</v>
       </c>
       <c r="C18" s="1">
-        <v>0.00010528</v>
+        <v>0.000111616</v>
       </c>
       <c r="D18" s="1">
-        <v>8.8416E-05</v>
+        <v>0.000148384</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="2">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.001406976</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.000116736</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.00011488</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="2">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.001065984</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.000120736</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.000104288</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="2">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.001144832</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.000126048</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.000102048</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="2">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.00127824</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.000131104</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.00011264</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="2">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0.001420448</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.000136256</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.00011264</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="2">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0.001524736</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.000140288</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.000119808</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="2">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0.001819648</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.000145664</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.000122848</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="2">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0.001731648</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.00015152</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.000130048</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="2">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0.001871072</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.000154784</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.00013088</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="2">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0.002006016</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0.000157696</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.00013536</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="2">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0.003734592</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0.00016512</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0.000175104</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="2">
+        <v>28</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0.00234512</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0.000168256</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0.000140192</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="2">
+        <v>29</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0.003574784</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0.00017696</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0.000146112</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="2">
+        <v>30</v>
+      </c>
+      <c r="B32" s="1">
+        <v>0.002686976</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0.00017808</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0.000149504</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="2">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0.002726912</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0.000185344</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0.000152736</v>
       </c>
     </row>
   </sheetData>

--- a/FILTROS IMAGENES/EXPERIMENTOS/RESULTADOS/COMPARACION_KERNELS/COMPARACION FILTROS/resultados.xlsx
+++ b/FILTROS IMAGENES/EXPERIMENTOS/RESULTADOS/COMPARACION_KERNELS/COMPARACION FILTROS/resultados.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>kernel_filter_color_local3</t>
+    <t>kernel_filter_color_local_organizado</t>
   </si>
   <si>
     <t>kernel_filter_color_rectangular</t>
@@ -409,13 +409,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>2.2528E-05</v>
+        <v>2.2784E-05</v>
       </c>
       <c r="C2" s="1">
-        <v>3.6128E-05</v>
+        <v>3.6992E-05</v>
       </c>
       <c r="D2" s="1">
-        <v>3.6864E-05</v>
+        <v>3.584E-05</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -423,13 +423,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>3.168E-05</v>
+        <v>3.2768E-05</v>
       </c>
       <c r="C3" s="1">
-        <v>3.9552E-05</v>
+        <v>4.0736E-05</v>
       </c>
       <c r="D3" s="1">
-        <v>3.9904E-05</v>
+        <v>3.8848E-05</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -437,13 +437,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>6.451200000000001E-05</v>
+        <v>6.3488E-05</v>
       </c>
       <c r="C4" s="1">
-        <v>4.192000000000001E-05</v>
+        <v>4.320000000000001E-05</v>
       </c>
       <c r="D4" s="1">
-        <v>4.3808E-05</v>
+        <v>4.3104E-05</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -451,13 +451,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>7.049600000000001E-05</v>
+        <v>7.0688E-05</v>
       </c>
       <c r="C5" s="1">
-        <v>4.608000000000001E-05</v>
+        <v>4.6208E-05</v>
       </c>
       <c r="D5" s="1">
-        <v>4.3296E-05</v>
+        <v>4.4032E-05</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -465,13 +465,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>0.000104544</v>
+        <v>0.000104448</v>
       </c>
       <c r="C6" s="1">
-        <v>3.9104E-05</v>
+        <v>3.993600000000001E-05</v>
       </c>
       <c r="D6" s="1">
-        <v>3.8048E-05</v>
+        <v>4.0032E-05</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -479,13 +479,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>0.000137216</v>
+        <v>0.000137472</v>
       </c>
       <c r="C7" s="1">
-        <v>5.600000000000001E-05</v>
+        <v>5.731200000000001E-05</v>
       </c>
       <c r="D7" s="1">
-        <v>5.2192E-05</v>
+        <v>5.12E-05</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -493,13 +493,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>0.000274432</v>
+        <v>0.000275456</v>
       </c>
       <c r="C8" s="1">
-        <v>4.2912E-05</v>
+        <v>4.3072E-05</v>
       </c>
       <c r="D8" s="1">
-        <v>4.3424E-05</v>
+        <v>4.3072E-05</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -507,13 +507,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>0.00022016</v>
+        <v>0.000214016</v>
       </c>
       <c r="C9" s="1">
-        <v>6.556800000000001E-05</v>
+        <v>6.726400000000001E-05</v>
       </c>
       <c r="D9" s="1">
-        <v>5.744000000000001E-05</v>
+        <v>5.916800000000001E-05</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -521,13 +521,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>0.00028672</v>
+        <v>0.000284736</v>
       </c>
       <c r="C10" s="1">
-        <v>4.72E-05</v>
+        <v>4.8128E-05</v>
       </c>
       <c r="D10" s="1">
-        <v>4.3648E-05</v>
+        <v>4.300800000000001E-05</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -535,13 +535,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>0.0004471360000000001</v>
+        <v>0.000447488</v>
       </c>
       <c r="C11" s="1">
-        <v>7.568000000000001E-05</v>
+        <v>7.683200000000001E-05</v>
       </c>
       <c r="D11" s="1">
-        <v>7.363200000000002E-05</v>
+        <v>7.4176E-05</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -549,13 +549,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>0.000397312</v>
+        <v>0.00039328</v>
       </c>
       <c r="C12" s="1">
-        <v>8.057600000000001E-05</v>
+        <v>8.188800000000001E-05</v>
       </c>
       <c r="D12" s="1">
-        <v>7.3952E-05</v>
+        <v>7.395200000000001E-05</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -563,13 +563,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>0.0004569280000000001</v>
+        <v>0.000457664</v>
       </c>
       <c r="C13" s="1">
-        <v>8.5888E-05</v>
+        <v>8.7296E-05</v>
       </c>
       <c r="D13" s="1">
-        <v>7.504E-05</v>
+        <v>7.6704E-05</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -577,13 +577,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>0.0005274240000000001</v>
+        <v>0.000535552</v>
       </c>
       <c r="C14" s="1">
-        <v>9.315200000000001E-05</v>
+        <v>9.097600000000002E-05</v>
       </c>
       <c r="D14" s="1">
-        <v>8.089600000000001E-05</v>
+        <v>8.086400000000002E-05</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -591,13 +591,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>0.000613248</v>
+        <v>0.000606208</v>
       </c>
       <c r="C15" s="1">
-        <v>9.7024E-05</v>
+        <v>9.8112E-05</v>
       </c>
       <c r="D15" s="1">
-        <v>8.499200000000002E-05</v>
+        <v>8.4128E-05</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -605,13 +605,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>0.00157312</v>
+        <v>0.000678912</v>
       </c>
       <c r="C16" s="1">
-        <v>0.000102624</v>
+        <v>0.000101056</v>
       </c>
       <c r="D16" s="1">
-        <v>8.595200000000001E-05</v>
+        <v>8.601600000000001E-05</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -619,13 +619,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>0.000745408</v>
+        <v>0.000746496</v>
       </c>
       <c r="C17" s="1">
-        <v>0.000105472</v>
+        <v>0.000106528</v>
       </c>
       <c r="D17" s="1">
-        <v>9.062400000000001E-05</v>
+        <v>9.168E-05</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -633,13 +633,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>0.002435392</v>
+        <v>0.002434336</v>
       </c>
       <c r="C18" s="1">
         <v>0.000111616</v>
       </c>
       <c r="D18" s="1">
-        <v>0.000148384</v>
+        <v>0.000147648</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -647,13 +647,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>0.001406976</v>
+        <v>0.001411072</v>
       </c>
       <c r="C19" s="1">
-        <v>0.000116736</v>
+        <v>0.000115808</v>
       </c>
       <c r="D19" s="1">
-        <v>0.00011488</v>
+        <v>0.000113344</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -661,13 +661,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="1">
-        <v>0.001065984</v>
+        <v>0.00104448</v>
       </c>
       <c r="C20" s="1">
-        <v>0.000120736</v>
+        <v>0.000120512</v>
       </c>
       <c r="D20" s="1">
-        <v>0.000104288</v>
+        <v>0.000105152</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -675,13 +675,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="1">
-        <v>0.001144832</v>
+        <v>0.001159296</v>
       </c>
       <c r="C21" s="1">
-        <v>0.000126048</v>
+        <v>0.000125952</v>
       </c>
       <c r="D21" s="1">
-        <v>0.000102048</v>
+        <v>0.000101664</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -689,13 +689,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="1">
-        <v>0.00127824</v>
+        <v>0.001276032</v>
       </c>
       <c r="C22" s="1">
-        <v>0.000131104</v>
+        <v>0.000130944</v>
       </c>
       <c r="D22" s="1">
-        <v>0.00011264</v>
+        <v>0.0001136</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -703,10 +703,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="1">
-        <v>0.001420448</v>
+        <v>0.001391424</v>
       </c>
       <c r="C23" s="1">
-        <v>0.000136256</v>
+        <v>0.000137344</v>
       </c>
       <c r="D23" s="1">
         <v>0.00011264</v>
@@ -717,13 +717,13 @@
         <v>22</v>
       </c>
       <c r="B24" s="1">
-        <v>0.001524736</v>
+        <v>0.001511648</v>
       </c>
       <c r="C24" s="1">
-        <v>0.000140288</v>
+        <v>0.00014032</v>
       </c>
       <c r="D24" s="1">
-        <v>0.000119808</v>
+        <v>0.000120032</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -731,13 +731,13 @@
         <v>23</v>
       </c>
       <c r="B25" s="1">
-        <v>0.001819648</v>
+        <v>0.001575936</v>
       </c>
       <c r="C25" s="1">
-        <v>0.000145664</v>
+        <v>0.000146528</v>
       </c>
       <c r="D25" s="1">
-        <v>0.000122848</v>
+        <v>0.000121664</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -745,13 +745,13 @@
         <v>24</v>
       </c>
       <c r="B26" s="1">
-        <v>0.001731648</v>
+        <v>0.00176432</v>
       </c>
       <c r="C26" s="1">
-        <v>0.00015152</v>
+        <v>0.000150528</v>
       </c>
       <c r="D26" s="1">
-        <v>0.000130048</v>
+        <v>0.000131936</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -759,13 +759,13 @@
         <v>25</v>
       </c>
       <c r="B27" s="1">
-        <v>0.001871072</v>
+        <v>0.001855488</v>
       </c>
       <c r="C27" s="1">
-        <v>0.000154784</v>
+        <v>0.000155424</v>
       </c>
       <c r="D27" s="1">
-        <v>0.00013088</v>
+        <v>0.000132096</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -773,13 +773,13 @@
         <v>26</v>
       </c>
       <c r="B28" s="1">
-        <v>0.002006016</v>
+        <v>0.00200096</v>
       </c>
       <c r="C28" s="1">
-        <v>0.000157696</v>
+        <v>0.000159488</v>
       </c>
       <c r="D28" s="1">
-        <v>0.00013536</v>
+        <v>0.000136128</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -787,13 +787,13 @@
         <v>27</v>
       </c>
       <c r="B29" s="1">
-        <v>0.003734592</v>
+        <v>0.003734848</v>
       </c>
       <c r="C29" s="1">
-        <v>0.00016512</v>
+        <v>0.000165664</v>
       </c>
       <c r="D29" s="1">
-        <v>0.000175104</v>
+        <v>0.000176736</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -801,13 +801,13 @@
         <v>28</v>
       </c>
       <c r="B30" s="1">
-        <v>0.00234512</v>
+        <v>0.00232448</v>
       </c>
       <c r="C30" s="1">
-        <v>0.000168256</v>
+        <v>0.00016896</v>
       </c>
       <c r="D30" s="1">
-        <v>0.000140192</v>
+        <v>0.000139936</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -815,13 +815,13 @@
         <v>29</v>
       </c>
       <c r="B31" s="1">
-        <v>0.003574784</v>
+        <v>0.002525376</v>
       </c>
       <c r="C31" s="1">
-        <v>0.00017696</v>
+        <v>0.00017408</v>
       </c>
       <c r="D31" s="1">
-        <v>0.000146112</v>
+        <v>0.000147296</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -829,13 +829,13 @@
         <v>30</v>
       </c>
       <c r="B32" s="1">
-        <v>0.002686976</v>
+        <v>0.00269312</v>
       </c>
       <c r="C32" s="1">
-        <v>0.00017808</v>
+        <v>0.0001792</v>
       </c>
       <c r="D32" s="1">
-        <v>0.000149504</v>
+        <v>0.000151392</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -843,13 +843,13 @@
         <v>31</v>
       </c>
       <c r="B33" s="1">
-        <v>0.002726912</v>
+        <v>0.003544064</v>
       </c>
       <c r="C33" s="1">
-        <v>0.000185344</v>
+        <v>0.000183936</v>
       </c>
       <c r="D33" s="1">
-        <v>0.000152736</v>
+        <v>0.00015248</v>
       </c>
     </row>
   </sheetData>

--- a/FILTROS IMAGENES/EXPERIMENTOS/RESULTADOS/COMPARACION_KERNELS/COMPARACION FILTROS/resultados.xlsx
+++ b/FILTROS IMAGENES/EXPERIMENTOS/RESULTADOS/COMPARACION_KERNELS/COMPARACION FILTROS/resultados.xlsx
@@ -409,13 +409,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>2.2784E-05</v>
+        <v>2.16E-05</v>
       </c>
       <c r="C2" s="1">
-        <v>3.6992E-05</v>
+        <v>3.68E-05</v>
       </c>
       <c r="D2" s="1">
-        <v>3.584E-05</v>
+        <v>3.6128E-05</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -423,13 +423,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>3.2768E-05</v>
+        <v>3.1744E-05</v>
       </c>
       <c r="C3" s="1">
-        <v>4.0736E-05</v>
+        <v>4.012800000000001E-05</v>
       </c>
       <c r="D3" s="1">
-        <v>3.8848E-05</v>
+        <v>3.8912E-05</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -437,13 +437,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>6.3488E-05</v>
+        <v>6.368E-05</v>
       </c>
       <c r="C4" s="1">
-        <v>4.320000000000001E-05</v>
+        <v>4.224E-05</v>
       </c>
       <c r="D4" s="1">
-        <v>4.3104E-05</v>
+        <v>4.300800000000001E-05</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -451,13 +451,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>7.0688E-05</v>
+        <v>7.065600000000001E-05</v>
       </c>
       <c r="C5" s="1">
-        <v>4.6208E-05</v>
+        <v>4.697600000000001E-05</v>
       </c>
       <c r="D5" s="1">
-        <v>4.4032E-05</v>
+        <v>4.211200000000001E-05</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -468,10 +468,10 @@
         <v>0.000104448</v>
       </c>
       <c r="C6" s="1">
-        <v>3.993600000000001E-05</v>
+        <v>3.8848E-05</v>
       </c>
       <c r="D6" s="1">
-        <v>4.0032E-05</v>
+        <v>3.7888E-05</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -479,13 +479,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>0.000137472</v>
+        <v>0.000137216</v>
       </c>
       <c r="C7" s="1">
-        <v>5.731200000000001E-05</v>
+        <v>5.632E-05</v>
       </c>
       <c r="D7" s="1">
-        <v>5.12E-05</v>
+        <v>5.1968E-05</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -493,13 +493,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>0.000275456</v>
+        <v>0.000276448</v>
       </c>
       <c r="C8" s="1">
-        <v>4.3072E-05</v>
+        <v>4.4032E-05</v>
       </c>
       <c r="D8" s="1">
-        <v>4.3072E-05</v>
+        <v>4.3296E-05</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -507,13 +507,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>0.000214016</v>
+        <v>0.000218112</v>
       </c>
       <c r="C9" s="1">
-        <v>6.726400000000001E-05</v>
+        <v>6.656000000000001E-05</v>
       </c>
       <c r="D9" s="1">
-        <v>5.916800000000001E-05</v>
+        <v>5.9232E-05</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -521,13 +521,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>0.000284736</v>
+        <v>0.000283648</v>
       </c>
       <c r="C10" s="1">
-        <v>4.8128E-05</v>
+        <v>4.720000000000001E-05</v>
       </c>
       <c r="D10" s="1">
-        <v>4.300800000000001E-05</v>
+        <v>4.2048E-05</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -535,13 +535,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>0.000447488</v>
+        <v>0.000447296</v>
       </c>
       <c r="C11" s="1">
-        <v>7.683200000000001E-05</v>
+        <v>7.494400000000001E-05</v>
       </c>
       <c r="D11" s="1">
-        <v>7.4176E-05</v>
+        <v>7.340800000000001E-05</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -549,13 +549,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>0.00039328</v>
+        <v>0.000400128</v>
       </c>
       <c r="C12" s="1">
-        <v>8.188800000000001E-05</v>
+        <v>7.984000000000001E-05</v>
       </c>
       <c r="D12" s="1">
-        <v>7.395200000000001E-05</v>
+        <v>7.2544E-05</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -563,13 +563,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>0.000457664</v>
+        <v>0.00045568</v>
       </c>
       <c r="C13" s="1">
-        <v>8.7296E-05</v>
+        <v>8.723199999999999E-05</v>
       </c>
       <c r="D13" s="1">
-        <v>7.6704E-05</v>
+        <v>7.5776E-05</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -577,13 +577,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>0.000535552</v>
+        <v>0.000528672</v>
       </c>
       <c r="C14" s="1">
-        <v>9.097600000000002E-05</v>
+        <v>9.1136E-05</v>
       </c>
       <c r="D14" s="1">
-        <v>8.086400000000002E-05</v>
+        <v>8.089600000000001E-05</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -591,13 +591,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>0.000606208</v>
+        <v>0.0006084160000000001</v>
       </c>
       <c r="C15" s="1">
-        <v>9.8112E-05</v>
+        <v>9.728E-05</v>
       </c>
       <c r="D15" s="1">
-        <v>8.4128E-05</v>
+        <v>8.3104E-05</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -605,13 +605,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>0.000678912</v>
+        <v>0.000679936</v>
       </c>
       <c r="C16" s="1">
-        <v>0.000101056</v>
+        <v>0.000101216</v>
       </c>
       <c r="D16" s="1">
-        <v>8.601600000000001E-05</v>
+        <v>8.508800000000001E-05</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -619,13 +619,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>0.000746496</v>
+        <v>0.0007454720000000001</v>
       </c>
       <c r="C17" s="1">
-        <v>0.000106528</v>
+        <v>0.000106624</v>
       </c>
       <c r="D17" s="1">
-        <v>9.168E-05</v>
+        <v>9.011200000000001E-05</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -633,13 +633,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>0.002434336</v>
+        <v>0.002435936</v>
       </c>
       <c r="C18" s="1">
-        <v>0.000111616</v>
+        <v>0.000111904</v>
       </c>
       <c r="D18" s="1">
-        <v>0.000147648</v>
+        <v>0.00014832</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -647,13 +647,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>0.001411072</v>
+        <v>0.001410112</v>
       </c>
       <c r="C19" s="1">
-        <v>0.000115808</v>
+        <v>0.000116448</v>
       </c>
       <c r="D19" s="1">
-        <v>0.000113344</v>
+        <v>0.000114464</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -661,13 +661,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="1">
-        <v>0.00104448</v>
+        <v>0.001050848</v>
       </c>
       <c r="C20" s="1">
-        <v>0.000120512</v>
+        <v>0.000120608</v>
       </c>
       <c r="D20" s="1">
-        <v>0.000105152</v>
+        <v>0.000104448</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -675,13 +675,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="1">
-        <v>0.001159296</v>
+        <v>0.001143808</v>
       </c>
       <c r="C21" s="1">
-        <v>0.000125952</v>
+        <v>0.000124928</v>
       </c>
       <c r="D21" s="1">
-        <v>0.000101664</v>
+        <v>0.000102176</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -689,13 +689,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="1">
-        <v>0.001276032</v>
+        <v>0.001278848</v>
       </c>
       <c r="C22" s="1">
-        <v>0.000130944</v>
+        <v>0.000131712</v>
       </c>
       <c r="D22" s="1">
-        <v>0.0001136</v>
+        <v>0.000113664</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -703,13 +703,13 @@
         <v>21</v>
       </c>
       <c r="B23" s="1">
-        <v>0.001391424</v>
+        <v>0.001379328</v>
       </c>
       <c r="C23" s="1">
-        <v>0.000137344</v>
+        <v>0.000135904</v>
       </c>
       <c r="D23" s="1">
-        <v>0.00011264</v>
+        <v>0.000111328</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -717,13 +717,13 @@
         <v>22</v>
       </c>
       <c r="B24" s="1">
-        <v>0.001511648</v>
+        <v>0.001519488</v>
       </c>
       <c r="C24" s="1">
-        <v>0.00014032</v>
+        <v>0.000139424</v>
       </c>
       <c r="D24" s="1">
-        <v>0.000120032</v>
+        <v>0.000120832</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -731,13 +731,13 @@
         <v>23</v>
       </c>
       <c r="B25" s="1">
-        <v>0.001575936</v>
+        <v>0.001574016</v>
       </c>
       <c r="C25" s="1">
-        <v>0.000146528</v>
+        <v>0.00014624</v>
       </c>
       <c r="D25" s="1">
-        <v>0.000121664</v>
+        <v>0.00012112</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -745,13 +745,13 @@
         <v>24</v>
       </c>
       <c r="B26" s="1">
-        <v>0.00176432</v>
+        <v>0.001729344</v>
       </c>
       <c r="C26" s="1">
-        <v>0.000150528</v>
+        <v>0.000151552</v>
       </c>
       <c r="D26" s="1">
-        <v>0.000131936</v>
+        <v>0.000130144</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -762,10 +762,10 @@
         <v>0.001855488</v>
       </c>
       <c r="C27" s="1">
-        <v>0.000155424</v>
+        <v>0.000154624</v>
       </c>
       <c r="D27" s="1">
-        <v>0.000132096</v>
+        <v>0.000128192</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -773,13 +773,13 @@
         <v>26</v>
       </c>
       <c r="B28" s="1">
-        <v>0.00200096</v>
+        <v>0.00202352</v>
       </c>
       <c r="C28" s="1">
-        <v>0.000159488</v>
+        <v>0.000160704</v>
       </c>
       <c r="D28" s="1">
-        <v>0.000136128</v>
+        <v>0.000133888</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -787,13 +787,13 @@
         <v>27</v>
       </c>
       <c r="B29" s="1">
-        <v>0.003734848</v>
+        <v>0.0037312</v>
       </c>
       <c r="C29" s="1">
-        <v>0.000165664</v>
+        <v>0.000164768</v>
       </c>
       <c r="D29" s="1">
-        <v>0.000176736</v>
+        <v>0.000175328</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -801,13 +801,13 @@
         <v>28</v>
       </c>
       <c r="B30" s="1">
-        <v>0.00232448</v>
+        <v>0.002331936</v>
       </c>
       <c r="C30" s="1">
-        <v>0.00016896</v>
+        <v>0.00016976</v>
       </c>
       <c r="D30" s="1">
-        <v>0.000139936</v>
+        <v>0.000140288</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -815,13 +815,13 @@
         <v>29</v>
       </c>
       <c r="B31" s="1">
-        <v>0.002525376</v>
+        <v>0.00250544</v>
       </c>
       <c r="C31" s="1">
-        <v>0.00017408</v>
+        <v>0.000173792</v>
       </c>
       <c r="D31" s="1">
-        <v>0.000147296</v>
+        <v>0.000145472</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -829,13 +829,13 @@
         <v>30</v>
       </c>
       <c r="B32" s="1">
-        <v>0.00269312</v>
+        <v>0.002709728</v>
       </c>
       <c r="C32" s="1">
-        <v>0.0001792</v>
+        <v>0.000177856</v>
       </c>
       <c r="D32" s="1">
-        <v>0.000151392</v>
+        <v>0.000150528</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -843,13 +843,13 @@
         <v>31</v>
       </c>
       <c r="B33" s="1">
-        <v>0.003544064</v>
+        <v>0.002743296</v>
       </c>
       <c r="C33" s="1">
-        <v>0.000183936</v>
+        <v>0.000184256</v>
       </c>
       <c r="D33" s="1">
-        <v>0.00015248</v>
+        <v>0.000151072</v>
       </c>
     </row>
   </sheetData>

--- a/FILTROS IMAGENES/EXPERIMENTOS/RESULTADOS/COMPARACION_KERNELS/COMPARACION FILTROS/resultados.xlsx
+++ b/FILTROS IMAGENES/EXPERIMENTOS/RESULTADOS/COMPARACION_KERNELS/COMPARACION FILTROS/resultados.xlsx
@@ -409,13 +409,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>2.16E-05</v>
+        <v>2.199959754943848E-05</v>
       </c>
       <c r="C2" s="1">
-        <v>3.68E-05</v>
+        <v>3.3792E-05</v>
       </c>
       <c r="D2" s="1">
-        <v>3.6128E-05</v>
+        <v>3.632E-05</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -423,13 +423,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>3.1744E-05</v>
+        <v>3.299856185913086E-05</v>
       </c>
       <c r="C3" s="1">
-        <v>4.012800000000001E-05</v>
+        <v>3.4752E-05</v>
       </c>
       <c r="D3" s="1">
-        <v>3.8912E-05</v>
+        <v>3.7824E-05</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -437,13 +437,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>6.368E-05</v>
+        <v>6.699872016906738E-05</v>
       </c>
       <c r="C4" s="1">
-        <v>4.224E-05</v>
+        <v>3.8752E-05</v>
       </c>
       <c r="D4" s="1">
-        <v>4.300800000000001E-05</v>
+        <v>4.4192E-05</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -451,13 +451,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>7.065600000000001E-05</v>
+        <v>7.2998046875E-05</v>
       </c>
       <c r="C5" s="1">
-        <v>4.697600000000001E-05</v>
+        <v>4.1984E-05</v>
       </c>
       <c r="D5" s="1">
-        <v>4.211200000000001E-05</v>
+        <v>4.2944E-05</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -465,13 +465,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>0.000104448</v>
+        <v>9.599757194519042E-05</v>
       </c>
       <c r="C6" s="1">
-        <v>3.8848E-05</v>
+        <v>3.4816E-05</v>
       </c>
       <c r="D6" s="1">
-        <v>3.7888E-05</v>
+        <v>3.7632E-05</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -479,13 +479,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>0.000137216</v>
+        <v>0.0001315121650695801</v>
       </c>
       <c r="C7" s="1">
-        <v>5.632E-05</v>
+        <v>4.915200000000001E-05</v>
       </c>
       <c r="D7" s="1">
-        <v>5.1968E-05</v>
+        <v>4.915200000000001E-05</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -493,13 +493,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>0.000276448</v>
+        <v>0.0002414398193359375</v>
       </c>
       <c r="C8" s="1">
-        <v>4.4032E-05</v>
+        <v>3.8528E-05</v>
       </c>
       <c r="D8" s="1">
-        <v>4.3296E-05</v>
+        <v>4.2016E-05</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -507,13 +507,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>0.000218112</v>
+        <v>0.0002089991569519043</v>
       </c>
       <c r="C9" s="1">
-        <v>6.656000000000001E-05</v>
+        <v>5.9008E-05</v>
       </c>
       <c r="D9" s="1">
-        <v>5.9232E-05</v>
+        <v>5.836800000000001E-05</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -521,13 +521,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>0.000283648</v>
+        <v>0.0002719981670379639</v>
       </c>
       <c r="C10" s="1">
-        <v>4.720000000000001E-05</v>
+        <v>4.1984E-05</v>
       </c>
       <c r="D10" s="1">
-        <v>4.2048E-05</v>
+        <v>4.2272E-05</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -535,13 +535,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>0.000447296</v>
+        <v>0.000400998592376709</v>
       </c>
       <c r="C11" s="1">
-        <v>7.494400000000001E-05</v>
+        <v>6.576000000000001E-05</v>
       </c>
       <c r="D11" s="1">
-        <v>7.340800000000001E-05</v>
+        <v>7.296000000000001E-05</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -549,13 +549,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>0.000400128</v>
+        <v>0.0003831844329833984</v>
       </c>
       <c r="C12" s="1">
-        <v>7.984000000000001E-05</v>
+        <v>7.043199999999999E-05</v>
       </c>
       <c r="D12" s="1">
-        <v>7.2544E-05</v>
+        <v>7.376E-05</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -563,13 +563,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>0.00045568</v>
+        <v>0.0004389984607696533</v>
       </c>
       <c r="C13" s="1">
-        <v>8.723199999999999E-05</v>
+        <v>7.475200000000001E-05</v>
       </c>
       <c r="D13" s="1">
-        <v>7.5776E-05</v>
+        <v>7.641600000000001E-05</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -577,13 +577,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>0.000528672</v>
+        <v>0.000512998104095459</v>
       </c>
       <c r="C14" s="1">
-        <v>9.1136E-05</v>
+        <v>9.216000000000001E-05</v>
       </c>
       <c r="D14" s="1">
-        <v>8.089600000000001E-05</v>
+        <v>8.096000000000001E-05</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -591,13 +591,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>0.0006084160000000001</v>
+        <v>0.000584998607635498</v>
       </c>
       <c r="C15" s="1">
-        <v>9.728E-05</v>
+        <v>9.5232E-05</v>
       </c>
       <c r="D15" s="1">
-        <v>8.3104E-05</v>
+        <v>8.288000000000001E-05</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -605,13 +605,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>0.000679936</v>
+        <v>0.0006619980335235596</v>
       </c>
       <c r="C16" s="1">
-        <v>0.000101216</v>
+        <v>0.000103136</v>
       </c>
       <c r="D16" s="1">
-        <v>8.508800000000001E-05</v>
+        <v>8.4832E-05</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -619,13 +619,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>0.0007454720000000001</v>
+        <v>0.0007249987125396728</v>
       </c>
       <c r="C17" s="1">
-        <v>0.000106624</v>
+        <v>0.00010752</v>
       </c>
       <c r="D17" s="1">
-        <v>9.011200000000001E-05</v>
+        <v>9.1328E-05</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -633,13 +633,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>0.002435936</v>
+        <v>0.002120004177093506</v>
       </c>
       <c r="C18" s="1">
-        <v>0.000111904</v>
+        <v>0.000111616</v>
       </c>
       <c r="D18" s="1">
-        <v>0.00014832</v>
+        <v>0.000149152</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -647,13 +647,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>0.001410112</v>
+        <v>0.001242265701293945</v>
       </c>
       <c r="C19" s="1">
-        <v>0.000116448</v>
+        <v>0.000115776</v>
       </c>
       <c r="D19" s="1">
-        <v>0.000114464</v>
+        <v>0.00011264</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -661,10 +661,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="1">
-        <v>0.001050848</v>
+        <v>0.001017997026443481</v>
       </c>
       <c r="C20" s="1">
-        <v>0.000120608</v>
+        <v>0.000121856</v>
       </c>
       <c r="D20" s="1">
         <v>0.000104448</v>
@@ -675,13 +675,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="1">
-        <v>0.001143808</v>
+        <v>0.00110854434967041</v>
       </c>
       <c r="C21" s="1">
         <v>0.000124928</v>
       </c>
       <c r="D21" s="1">
-        <v>0.000102176</v>
+        <v>0.0001024</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -689,13 +689,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="1">
-        <v>0.001278848</v>
+        <v>0.001235997438430786</v>
       </c>
       <c r="C22" s="1">
-        <v>0.000131712</v>
+        <v>0.000130368</v>
       </c>
       <c r="D22" s="1">
-        <v>0.000113664</v>
+        <v>0.000112416</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -703,13 +703,13 @@
         <v>21</v>
       </c>
       <c r="B23" s="1">
-        <v>0.001379328</v>
+        <v>0.001339998722076416</v>
       </c>
       <c r="C23" s="1">
-        <v>0.000135904</v>
+        <v>0.000135264</v>
       </c>
       <c r="D23" s="1">
-        <v>0.000111328</v>
+        <v>0.000111648</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -717,13 +717,13 @@
         <v>22</v>
       </c>
       <c r="B24" s="1">
-        <v>0.001519488</v>
+        <v>0.001467998027801514</v>
       </c>
       <c r="C24" s="1">
-        <v>0.000139424</v>
+        <v>0.000140512</v>
       </c>
       <c r="D24" s="1">
-        <v>0.000120832</v>
+        <v>0.000119712</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -731,13 +731,13 @@
         <v>23</v>
       </c>
       <c r="B25" s="1">
-        <v>0.001574016</v>
+        <v>0.001536003112792969</v>
       </c>
       <c r="C25" s="1">
-        <v>0.00014624</v>
+        <v>0.000146272</v>
       </c>
       <c r="D25" s="1">
-        <v>0.00012112</v>
+        <v>0.000122016</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -745,13 +745,13 @@
         <v>24</v>
       </c>
       <c r="B26" s="1">
-        <v>0.001729344</v>
+        <v>0.00168550705909729</v>
       </c>
       <c r="C26" s="1">
-        <v>0.000151552</v>
+        <v>0.000150528</v>
       </c>
       <c r="D26" s="1">
-        <v>0.000130144</v>
+        <v>0.000130048</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -759,13 +759,13 @@
         <v>25</v>
       </c>
       <c r="B27" s="1">
-        <v>0.001855488</v>
+        <v>0.001800004720687866</v>
       </c>
       <c r="C27" s="1">
-        <v>0.000154624</v>
+        <v>0.0001536</v>
       </c>
       <c r="D27" s="1">
-        <v>0.000128192</v>
+        <v>0.000130144</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -773,13 +773,13 @@
         <v>26</v>
       </c>
       <c r="B28" s="1">
-        <v>0.00202352</v>
+        <v>0.001944998741149902</v>
       </c>
       <c r="C28" s="1">
-        <v>0.000160704</v>
+        <v>0.00015872</v>
       </c>
       <c r="D28" s="1">
-        <v>0.000133888</v>
+        <v>0.000136128</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -787,13 +787,13 @@
         <v>27</v>
       </c>
       <c r="B29" s="1">
-        <v>0.0037312</v>
+        <v>0.003286004304885864</v>
       </c>
       <c r="C29" s="1">
-        <v>0.000164768</v>
+        <v>0.00016496</v>
       </c>
       <c r="D29" s="1">
-        <v>0.000175328</v>
+        <v>0.000175168</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -801,13 +801,13 @@
         <v>28</v>
       </c>
       <c r="B30" s="1">
-        <v>0.002331936</v>
+        <v>0.002243998765945435</v>
       </c>
       <c r="C30" s="1">
-        <v>0.00016976</v>
+        <v>0.000169088</v>
       </c>
       <c r="D30" s="1">
-        <v>0.000140288</v>
+        <v>0.000138176</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -815,13 +815,13 @@
         <v>29</v>
       </c>
       <c r="B31" s="1">
-        <v>0.00250544</v>
+        <v>0.002402508497238159</v>
       </c>
       <c r="C31" s="1">
-        <v>0.000173792</v>
+        <v>0.000175104</v>
       </c>
       <c r="D31" s="1">
-        <v>0.000145472</v>
+        <v>0.000146176</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -829,10 +829,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="1">
-        <v>0.002709728</v>
+        <v>0.002571271419525146</v>
       </c>
       <c r="C32" s="1">
-        <v>0.000177856</v>
+        <v>0.000177984</v>
       </c>
       <c r="D32" s="1">
         <v>0.000150528</v>
@@ -843,13 +843,13 @@
         <v>31</v>
       </c>
       <c r="B33" s="1">
-        <v>0.002743296</v>
+        <v>0.002611010074615479</v>
       </c>
       <c r="C33" s="1">
-        <v>0.000184256</v>
+        <v>0.000182624</v>
       </c>
       <c r="D33" s="1">
-        <v>0.000151072</v>
+        <v>0.000151552</v>
       </c>
     </row>
   </sheetData>

--- a/FILTROS IMAGENES/EXPERIMENTOS/RESULTADOS/COMPARACION_KERNELS/COMPARACION FILTROS/resultados.xlsx
+++ b/FILTROS IMAGENES/EXPERIMENTOS/RESULTADOS/COMPARACION_KERNELS/COMPARACION FILTROS/resultados.xlsx
@@ -409,13 +409,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>2.199959754943848E-05</v>
+        <v>2.199912071228027E-05</v>
       </c>
       <c r="C2" s="1">
-        <v>3.3792E-05</v>
+        <v>3.264E-05</v>
       </c>
       <c r="D2" s="1">
-        <v>3.632E-05</v>
+        <v>3.584E-05</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -423,13 +423,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>3.299856185913086E-05</v>
+        <v>3.599882125854492E-05</v>
       </c>
       <c r="C3" s="1">
-        <v>3.4752E-05</v>
+        <v>3.5488E-05</v>
       </c>
       <c r="D3" s="1">
-        <v>3.7824E-05</v>
+        <v>3.814400000000001E-05</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -437,13 +437,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>6.699872016906738E-05</v>
+        <v>6.599903106689453E-05</v>
       </c>
       <c r="C4" s="1">
-        <v>3.8752E-05</v>
+        <v>3.7888E-05</v>
       </c>
       <c r="D4" s="1">
-        <v>4.4192E-05</v>
+        <v>4.284800000000001E-05</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -451,13 +451,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>7.2998046875E-05</v>
+        <v>7.399749755859375E-05</v>
       </c>
       <c r="C5" s="1">
-        <v>4.1984E-05</v>
+        <v>4.1888E-05</v>
       </c>
       <c r="D5" s="1">
-        <v>4.2944E-05</v>
+        <v>4.374400000000001E-05</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -465,13 +465,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>9.599757194519042E-05</v>
+        <v>9.999775886535644E-05</v>
       </c>
       <c r="C6" s="1">
-        <v>3.4816E-05</v>
+        <v>3.4144E-05</v>
       </c>
       <c r="D6" s="1">
-        <v>3.7632E-05</v>
+        <v>3.9104E-05</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -479,13 +479,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>0.0001315121650695801</v>
+        <v>0.0001369998455047607</v>
       </c>
       <c r="C7" s="1">
-        <v>4.915200000000001E-05</v>
+        <v>4.9312E-05</v>
       </c>
       <c r="D7" s="1">
-        <v>4.915200000000001E-05</v>
+        <v>5.12E-05</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -493,13 +493,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>0.0002414398193359375</v>
+        <v>0.0002539987564086914</v>
       </c>
       <c r="C8" s="1">
-        <v>3.8528E-05</v>
+        <v>3.776E-05</v>
       </c>
       <c r="D8" s="1">
-        <v>4.2016E-05</v>
+        <v>4.384E-05</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -507,13 +507,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>0.0002089991569519043</v>
+        <v>0.0002145028114318848</v>
       </c>
       <c r="C9" s="1">
-        <v>5.9008E-05</v>
+        <v>5.8176E-05</v>
       </c>
       <c r="D9" s="1">
-        <v>5.836800000000001E-05</v>
+        <v>5.8496E-05</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -521,13 +521,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>0.0002719981670379639</v>
+        <v>0.0002729990482330322</v>
       </c>
       <c r="C10" s="1">
-        <v>4.1984E-05</v>
+        <v>4.096E-05</v>
       </c>
       <c r="D10" s="1">
-        <v>4.2272E-05</v>
+        <v>4.208E-05</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -535,13 +535,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>0.000400998592376709</v>
+        <v>0.0004079983234405518</v>
       </c>
       <c r="C11" s="1">
-        <v>6.576000000000001E-05</v>
+        <v>6.736000000000001E-05</v>
       </c>
       <c r="D11" s="1">
-        <v>7.296000000000001E-05</v>
+        <v>7.372800000000001E-05</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -549,13 +549,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>0.0003831844329833984</v>
+        <v>0.000396505355834961</v>
       </c>
       <c r="C12" s="1">
-        <v>7.043199999999999E-05</v>
+        <v>6.988800000000001E-05</v>
       </c>
       <c r="D12" s="1">
-        <v>7.376E-05</v>
+        <v>7.2704E-05</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -563,13 +563,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>0.0004389984607696533</v>
+        <v>0.0004561548233032226</v>
       </c>
       <c r="C13" s="1">
+        <v>7.5776E-05</v>
+      </c>
+      <c r="D13" s="1">
         <v>7.475200000000001E-05</v>
-      </c>
-      <c r="D13" s="1">
-        <v>7.641600000000001E-05</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -577,13 +577,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>0.000512998104095459</v>
+        <v>0.0005285801887512207</v>
       </c>
       <c r="C14" s="1">
-        <v>9.216000000000001E-05</v>
+        <v>8.710400000000001E-05</v>
       </c>
       <c r="D14" s="1">
-        <v>8.096000000000001E-05</v>
+        <v>8.147200000000001E-05</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -591,13 +591,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>0.000584998607635498</v>
+        <v>0.0005829982757568359</v>
       </c>
       <c r="C15" s="1">
-        <v>9.5232E-05</v>
+        <v>9.6544E-05</v>
       </c>
       <c r="D15" s="1">
-        <v>8.288000000000001E-05</v>
+        <v>8.3936E-05</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -605,13 +605,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>0.0006619980335235596</v>
+        <v>0.0006585078239440918</v>
       </c>
       <c r="C16" s="1">
-        <v>0.000103136</v>
+        <v>0.000101216</v>
       </c>
       <c r="D16" s="1">
-        <v>8.4832E-05</v>
+        <v>8.4992E-05</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -619,13 +619,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>0.0007249987125396728</v>
+        <v>0.0007189991474151611</v>
       </c>
       <c r="C17" s="1">
         <v>0.00010752</v>
       </c>
       <c r="D17" s="1">
-        <v>9.1328E-05</v>
+        <v>9.065600000000001E-05</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -633,13 +633,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>0.002120004177093506</v>
+        <v>0.002105998516082764</v>
       </c>
       <c r="C18" s="1">
-        <v>0.000111616</v>
+        <v>0.000111744</v>
       </c>
       <c r="D18" s="1">
-        <v>0.000149152</v>
+        <v>0.000149056</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -647,13 +647,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>0.001242265701293945</v>
+        <v>0.001234997749328613</v>
       </c>
       <c r="C19" s="1">
-        <v>0.000115776</v>
+        <v>0.000115968</v>
       </c>
       <c r="D19" s="1">
-        <v>0.00011264</v>
+        <v>0.00011392</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -661,13 +661,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="1">
-        <v>0.001017997026443481</v>
+        <v>0.001010004043579102</v>
       </c>
       <c r="C20" s="1">
-        <v>0.000121856</v>
+        <v>0.000122624</v>
       </c>
       <c r="D20" s="1">
-        <v>0.000104448</v>
+        <v>0.000103392</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -675,13 +675,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="1">
-        <v>0.00110854434967041</v>
+        <v>0.001099998235702515</v>
       </c>
       <c r="C21" s="1">
-        <v>0.000124928</v>
+        <v>0.000126656</v>
       </c>
       <c r="D21" s="1">
-        <v>0.0001024</v>
+        <v>0.000101504</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -689,13 +689,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="1">
-        <v>0.001235997438430786</v>
+        <v>0.001227998971939087</v>
       </c>
       <c r="C22" s="1">
-        <v>0.000130368</v>
+        <v>0.00013072</v>
       </c>
       <c r="D22" s="1">
-        <v>0.000112416</v>
+        <v>0.00011264</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -703,13 +703,13 @@
         <v>21</v>
       </c>
       <c r="B23" s="1">
-        <v>0.001339998722076416</v>
+        <v>0.001328998565673828</v>
       </c>
       <c r="C23" s="1">
-        <v>0.000135264</v>
+        <v>0.000133248</v>
       </c>
       <c r="D23" s="1">
-        <v>0.000111648</v>
+        <v>0.000110784</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -717,13 +717,13 @@
         <v>22</v>
       </c>
       <c r="B24" s="1">
-        <v>0.001467998027801514</v>
+        <v>0.001462003946304321</v>
       </c>
       <c r="C24" s="1">
-        <v>0.000140512</v>
+        <v>0.000140128</v>
       </c>
       <c r="D24" s="1">
-        <v>0.000119712</v>
+        <v>0.000120096</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -731,13 +731,13 @@
         <v>23</v>
       </c>
       <c r="B25" s="1">
-        <v>0.001536003112792969</v>
+        <v>0.001524998664855957</v>
       </c>
       <c r="C25" s="1">
-        <v>0.000146272</v>
+        <v>0.000145632</v>
       </c>
       <c r="D25" s="1">
-        <v>0.000122016</v>
+        <v>0.000121888</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -745,13 +745,13 @@
         <v>24</v>
       </c>
       <c r="B26" s="1">
-        <v>0.00168550705909729</v>
+        <v>0.001684997320175171</v>
       </c>
       <c r="C26" s="1">
-        <v>0.000150528</v>
+        <v>0.000151296</v>
       </c>
       <c r="D26" s="1">
-        <v>0.000130048</v>
+        <v>0.000130144</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -759,13 +759,13 @@
         <v>25</v>
       </c>
       <c r="B27" s="1">
-        <v>0.001800004720687866</v>
+        <v>0.001834998369216919</v>
       </c>
       <c r="C27" s="1">
-        <v>0.0001536</v>
+        <v>0.00015456</v>
       </c>
       <c r="D27" s="1">
-        <v>0.000130144</v>
+        <v>0.000129344</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -773,13 +773,13 @@
         <v>26</v>
       </c>
       <c r="B28" s="1">
-        <v>0.001944998741149902</v>
+        <v>0.00197899866104126</v>
       </c>
       <c r="C28" s="1">
-        <v>0.00015872</v>
+        <v>0.000159616</v>
       </c>
       <c r="D28" s="1">
-        <v>0.000136128</v>
+        <v>0.000134496</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -787,13 +787,13 @@
         <v>27</v>
       </c>
       <c r="B29" s="1">
-        <v>0.003286004304885864</v>
+        <v>0.003305068731307983</v>
       </c>
       <c r="C29" s="1">
-        <v>0.00016496</v>
+        <v>0.000167904</v>
       </c>
       <c r="D29" s="1">
-        <v>0.000175168</v>
+        <v>0.000175968</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -801,13 +801,13 @@
         <v>28</v>
       </c>
       <c r="B30" s="1">
-        <v>0.002243998765945435</v>
+        <v>0.002245051622390747</v>
       </c>
       <c r="C30" s="1">
-        <v>0.000169088</v>
+        <v>0.000170112</v>
       </c>
       <c r="D30" s="1">
-        <v>0.000138176</v>
+        <v>0.00013952</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -815,13 +815,13 @@
         <v>29</v>
       </c>
       <c r="B31" s="1">
-        <v>0.002402508497238159</v>
+        <v>0.00243359637260437</v>
       </c>
       <c r="C31" s="1">
-        <v>0.000175104</v>
+        <v>0.000175328</v>
       </c>
       <c r="D31" s="1">
-        <v>0.000146176</v>
+        <v>0.000146432</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -829,13 +829,13 @@
         <v>30</v>
       </c>
       <c r="B32" s="1">
-        <v>0.002571271419525146</v>
+        <v>0.002578476905822754</v>
       </c>
       <c r="C32" s="1">
-        <v>0.000177984</v>
+        <v>0.000177376</v>
       </c>
       <c r="D32" s="1">
-        <v>0.000150528</v>
+        <v>0.000151168</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -843,13 +843,13 @@
         <v>31</v>
       </c>
       <c r="B33" s="1">
-        <v>0.002611010074615479</v>
+        <v>0.002605045080184937</v>
       </c>
       <c r="C33" s="1">
-        <v>0.000182624</v>
+        <v>0.000186144</v>
       </c>
       <c r="D33" s="1">
-        <v>0.000151552</v>
+        <v>0.000151488</v>
       </c>
     </row>
   </sheetData>
